--- a/DataDrivenFramework/src/test/resources/login.xlsx
+++ b/DataDrivenFramework/src/test/resources/login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pitiasfessahaie/eclipse-workspace2/DataDriverFramework/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pitiasfessahaie/git/DataDrivenFramework/DataDrivenFramework/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78ECCF4-46E1-7C4D-8393-9F3E31FB6FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC0A11E-1853-0045-B7CF-CD554D6DEA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32680" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/DataDrivenFramework/src/test/resources/login.xlsx
+++ b/DataDrivenFramework/src/test/resources/login.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pitiasfessahaie/git/DataDrivenFramework/DataDrivenFramework/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC0A11E-1853-0045-B7CF-CD554D6DEA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B3C517-0F19-4449-B625-5E04203DA1B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32680" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>admin</t>
   </si>
@@ -49,10 +49,19 @@
     <t>engineer</t>
   </si>
   <si>
-    <t>1admin</t>
-  </si>
-  <si>
     <t>daniel@gmail.com</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>chantillyVA</t>
   </si>
 </sst>
 </file>
@@ -423,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -436,15 +445,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -468,10 +477,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
